--- a/excel/test/work_flow_test.xlsx
+++ b/excel/test/work_flow_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340"/>
+    <workbookView xWindow="33600" yWindow="-7340" windowWidth="26240" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="pngTest" sheetId="1" r:id="rId1"/>
@@ -5811,7 +5811,8 @@
     <col min="3" max="3" width="15.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="79.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="2.625" style="2" customWidth="1"/>
-    <col min="6" max="250" width="7.25" style="1" customWidth="1"/>
+    <col min="6" max="9" width="2.25" style="1" customWidth="1"/>
+    <col min="10" max="250" width="7.25" style="1" customWidth="1"/>
     <col min="251" max="16384" width="7.75" style="1"/>
   </cols>
   <sheetData>
